--- a/Excel-XLSX/UN-GAB.xlsx
+++ b/Excel-XLSX/UN-GAB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="738">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>0fmXSZ</t>
+    <t>74NUgW</t>
   </si>
   <si>
     <t>1969</t>
@@ -2230,9 +2230,6 @@
   </si>
   <si>
     <t>516</t>
-  </si>
-  <si>
-    <t>517</t>
   </si>
 </sst>
 </file>
@@ -2617,7 +2614,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V518"/>
+  <dimension ref="A1:V517"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -37213,7 +37210,7 @@
         <v>87</v>
       </c>
       <c r="O509" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="P509" s="2" t="s">
         <v>33</v>
@@ -37278,7 +37275,7 @@
         <v>31</v>
       </c>
       <c r="N510" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="O510" s="2" t="s">
         <v>135</v>
@@ -37349,7 +37346,7 @@
         <v>47</v>
       </c>
       <c r="O511" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P511" s="2" t="s">
         <v>33</v>
@@ -37414,10 +37411,10 @@
         <v>31</v>
       </c>
       <c r="N512" s="2" t="s">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="O512" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="P512" s="2" t="s">
         <v>33</v>
@@ -37482,7 +37479,7 @@
         <v>31</v>
       </c>
       <c r="N513" s="2" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="O513" s="2" t="s">
         <v>99</v>
@@ -37662,16 +37659,16 @@
         <v>729</v>
       </c>
       <c r="F516" s="2" t="s">
-        <v>119</v>
+        <v>262</v>
       </c>
       <c r="G516" s="1" t="s">
-        <v>120</v>
+        <v>263</v>
       </c>
       <c r="H516" s="1" t="s">
-        <v>121</v>
+        <v>264</v>
       </c>
       <c r="I516" s="1" t="s">
-        <v>121</v>
+        <v>265</v>
       </c>
       <c r="J516" s="2" t="s">
         <v>29</v>
@@ -37686,7 +37683,7 @@
         <v>31</v>
       </c>
       <c r="N516" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="O516" s="2" t="s">
         <v>33</v>
@@ -37730,16 +37727,16 @@
         <v>729</v>
       </c>
       <c r="F517" s="2" t="s">
-        <v>262</v>
+        <v>159</v>
       </c>
       <c r="G517" s="1" t="s">
-        <v>263</v>
+        <v>160</v>
       </c>
       <c r="H517" s="1" t="s">
-        <v>264</v>
+        <v>161</v>
       </c>
       <c r="I517" s="1" t="s">
-        <v>265</v>
+        <v>162</v>
       </c>
       <c r="J517" s="2" t="s">
         <v>29</v>
@@ -37778,74 +37775,6 @@
         <v>34</v>
       </c>
       <c r="V517" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B518" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C518" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D518" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="E518" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="F518" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G518" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H518" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I518" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J518" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K518" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L518" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M518" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N518" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O518" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P518" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q518" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R518" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S518" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T518" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U518" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V518" s="2" t="s">
         <v>33</v>
       </c>
     </row>
